--- a/config/antiSac/antisac_run4.xlsx
+++ b/config/antiSac/antisac_run4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1025,11 +1025,11 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1142,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
         <v>9.05</v>
@@ -1382,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>1.5</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
         <v>37.2</v>
@@ -1503,13 +1503,13 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2">
         <v>50.9</v>
@@ -1543,13 +1543,13 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>1.5</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2">
         <v>55.05</v>
@@ -1563,13 +1563,13 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <v>1.25</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" s="2">
         <v>57.875</v>
